--- a/downloaded_files/EECS101_Tutorial-35277.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35277.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على اشرف على حسن السنان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Ashraf Ali Hassan Elsanan</x:t>
   </x:si>
   <x:si>
     <x:t>1230206</x:t>
@@ -356,7 +365,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -656,7 +665,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -971,7 +980,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45926.5688795486</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1003,7 +1012,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6664400463</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1035,7 +1044,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6646134259</x:v>
+        <x:v>45907.6664400463</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1067,7 +1076,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4213496875</x:v>
+        <x:v>45907.6646134259</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1099,7 +1108,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4200795949</x:v>
+        <x:v>45907.4213496875</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1131,7 +1140,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45916.7063430903</x:v>
+        <x:v>45907.4200795949</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1163,7 +1172,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.414816169</x:v>
+        <x:v>45916.7063430903</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1195,7 +1204,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.5748930903</x:v>
+        <x:v>45907.414816169</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1227,7 +1236,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.5748930903</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1259,7 +1268,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4204888079</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1291,7 +1300,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4195184375</x:v>
+        <x:v>45907.4204888079</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1319,9 +1328,11 @@
       <x:c r="C20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s"/>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.419703206</x:v>
+        <x:v>45907.4195184375</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1344,16 +1355,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45907.6698700579</x:v>
+        <x:v>45907.419703206</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1385,7 +1394,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45907.6698700579</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1417,7 +1426,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1449,7 +1458,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4195636921</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1477,9 +1486,11 @@
       <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
+      <x:c r="D25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6650458333</x:v>
+        <x:v>45907.4195636921</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1496,6 +1507,36 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s"/>
+      <x:c r="E26" s="3">
+        <x:v>45907.6650458333</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Tutorial-35277.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35277.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -202,6 +202,15 @@
   </x:si>
   <x:si>
     <x:t>Nada Serag Mohamed Esmat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور منتصر مجدى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nour montasser magdy mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1230309</x:t>
@@ -365,7 +374,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -665,7 +674,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -916,7 +925,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4200563657</x:v>
+        <x:v>45927.4329591782</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1360,9 +1369,11 @@
       <x:c r="C21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.419703206</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1385,16 +1396,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45907.6698700579</x:v>
+        <x:v>45907.419703206</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1426,7 +1435,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45907.6698700579</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1458,7 +1467,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1490,7 +1499,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4195636921</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1518,9 +1527,11 @@
       <x:c r="C26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s"/>
+      <x:c r="D26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6650458333</x:v>
+        <x:v>45907.4195636921</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1537,6 +1548,36 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s"/>
+      <x:c r="E27" s="3">
+        <x:v>45907.6650458333</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Tutorial-35277.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35277.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -202,6 +202,15 @@
   </x:si>
   <x:si>
     <x:t>Nada Serag Mohamed Esmat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور الدين سامى حموده بكر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
   </x:si>
   <x:si>
     <x:t>1230124</x:t>
@@ -374,7 +383,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -674,7 +683,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1373,7 +1382,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4155992245</x:v>
+        <x:v>45928.5785140856</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1401,9 +1410,11 @@
       <x:c r="C22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s"/>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.419703206</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1426,16 +1437,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
+      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45907.6698700579</x:v>
+        <x:v>45907.419703206</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1467,7 +1476,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45907.6698700579</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1499,7 +1508,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1531,7 +1540,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4195636921</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1559,9 +1568,11 @@
       <x:c r="C27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s"/>
+      <x:c r="D27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6650458333</x:v>
+        <x:v>45907.4195636921</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1578,6 +1589,36 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s"/>
+      <x:c r="E28" s="3">
+        <x:v>45907.6650458333</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Tutorial-35277.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35277.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,15 +78,6 @@
     <x:t>Salma Amr Ahmed Youssef Elsherbiny</x:t>
   </x:si>
   <x:si>
-    <x:t>1230202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن احمد يحيى احمد صبري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ahmed Yehia Ahmed Sabry</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230053</x:t>
   </x:si>
   <x:si>
@@ -262,12 +253,6 @@
   </x:si>
   <x:si>
     <x:t>Yassa rizk lamey rizk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4240061</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد صلاح مصلحي</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -383,7 +368,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -683,7 +668,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -934,7 +919,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.4329591782</x:v>
+        <x:v>45909.4152893519</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -966,7 +951,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4152893519</x:v>
+        <x:v>45926.5688795486</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -998,7 +983,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45926.5688795486</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1030,7 +1015,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45907.6664400463</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1062,7 +1047,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6664400463</x:v>
+        <x:v>45907.6646134259</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1094,7 +1079,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6646134259</x:v>
+        <x:v>45907.4213496875</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1126,7 +1111,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4213496875</x:v>
+        <x:v>45907.4200795949</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1158,7 +1143,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4200795949</x:v>
+        <x:v>45916.7063430903</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1190,7 +1175,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45916.7063430903</x:v>
+        <x:v>45907.414816169</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1222,7 +1207,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.414816169</x:v>
+        <x:v>45907.5748930903</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1254,7 +1239,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.5748930903</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1286,7 +1271,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.4204888079</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1318,7 +1303,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4204888079</x:v>
+        <x:v>45907.4195184375</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1350,7 +1335,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4195184375</x:v>
+        <x:v>45928.5785140856</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1382,7 +1367,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45928.5785140856</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1410,11 +1395,9 @@
       <x:c r="C22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45927.4155992245</x:v>
+        <x:v>45907.419703206</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1437,14 +1420,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45907.419703206</x:v>
+        <x:v>45907.6698700579</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1476,7 +1461,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6698700579</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1508,7 +1493,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1540,7 +1525,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.4195636921</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1557,68 +1542,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45907.4195636921</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s"/>
-      <x:c r="E28" s="3">
-        <x:v>45907.6650458333</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Tutorial-35277.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35277.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Salma Amr Ahmed Youssef Elsherbiny</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن احمد يحيى احمد صبري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Ahmed Yehia Ahmed Sabry</x:t>
   </x:si>
   <x:si>
     <x:t>1230053</x:t>
@@ -368,7 +377,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -668,7 +677,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -919,7 +928,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4152893519</x:v>
+        <x:v>45929.4830858449</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -951,7 +960,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45926.5688795486</x:v>
+        <x:v>45909.4152893519</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -983,7 +992,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45926.5688795486</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1015,7 +1024,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6664400463</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1047,7 +1056,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6646134259</x:v>
+        <x:v>45907.6664400463</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1079,7 +1088,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4213496875</x:v>
+        <x:v>45907.6646134259</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1111,7 +1120,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4200795949</x:v>
+        <x:v>45907.4213496875</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1143,7 +1152,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45916.7063430903</x:v>
+        <x:v>45907.4200795949</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1175,7 +1184,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.414816169</x:v>
+        <x:v>45916.7063430903</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1207,7 +1216,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.5748930903</x:v>
+        <x:v>45907.414816169</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1239,7 +1248,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.5748930903</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1271,7 +1280,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4204888079</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1303,7 +1312,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4195184375</x:v>
+        <x:v>45907.4204888079</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1335,7 +1344,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45928.5785140856</x:v>
+        <x:v>45907.4195184375</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1367,7 +1376,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4155992245</x:v>
+        <x:v>45928.5785140856</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1395,9 +1404,11 @@
       <x:c r="C22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s"/>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.419703206</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1420,16 +1431,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
+      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45907.6698700579</x:v>
+        <x:v>45907.419703206</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1461,7 +1470,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45907.6698700579</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1493,7 +1502,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1525,7 +1534,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4195636921</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1542,6 +1551,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45907.4195636921</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Tutorial-35277.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35277.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -193,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1170117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى مرسى عبد المتجلى محمد مرسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Morsy Abdel Motagally</x:t>
   </x:si>
   <x:si>
     <x:t>1230271</x:t>
@@ -377,7 +386,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -677,7 +686,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1344,7 +1353,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4195184375</x:v>
+        <x:v>45937.7816862269</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1376,7 +1385,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45928.5785140856</x:v>
+        <x:v>45907.4195184375</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1408,7 +1417,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4155992245</x:v>
+        <x:v>45928.5785140856</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1436,9 +1445,11 @@
       <x:c r="C23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s"/>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.419703206</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1461,16 +1472,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
+      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45907.6698700579</x:v>
+        <x:v>45907.419703206</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1502,7 +1511,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45907.6698700579</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4195636921</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1583,6 +1592,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45907.4195636921</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Tutorial-35277.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35277.xlsx
@@ -93,7 +93,7 @@
     <x:t>عبدالرحمن احمد محمد صلاح الدين علي رجب</x:t>
   </x:si>
   <x:si>
-    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali</x:t>
+    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali Rajab</x:t>
   </x:si>
   <x:si>
     <x:t>1230066</x:t>
@@ -135,10 +135,10 @@
     <x:t>1230226</x:t>
   </x:si>
   <x:si>
-    <x:t>كريم طارق عبد الله عبد الحليم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim Tarek Abdalla</x:t>
+    <x:t>كريم طارق عبد الله عبد الحليم عبدالمنعم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Tarek Abdullah Abdelhalim Abdelmonem</x:t>
   </x:si>
   <x:si>
     <x:t>1220269</x:t>
@@ -192,7 +192,7 @@
     <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
+    <x:t xml:space="preserve"> Mohammad Amr Mohammad Ezzat Safwat  Aboelattaa</x:t>
   </x:si>
   <x:si>
     <x:t>1170117</x:t>
